--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -1545,7 +1545,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="214">
   <si>
     <t>Sezione</t>
   </si>
@@ -636,6 +636,24 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>Tipo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>evento.datiAnnotazione</t>
+  </si>
+  <si>
+    <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>Testo Annotazione Contestuale</t>
+  </si>
+  <si>
+    <t>testoAnnotazione</t>
   </si>
 </sst>
 </file>
@@ -694,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6248,6 +6266,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="206">
   <si>
     <t>Sezione</t>
   </si>
@@ -482,18 +482,6 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Impedimento - Difetto di età</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.autorizzazioneDifettoEta</t>
-  </si>
-  <si>
-    <t>Impedimento - Parentela</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.autorizzazioneParentela</t>
-  </si>
-  <si>
     <t>Legge regime patrimoniale</t>
   </si>
   <si>
@@ -503,6 +491,21 @@
     <t>legge</t>
   </si>
   <si>
+    <t>Impedimento Generico</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
+  </si>
+  <si>
+    <t>Motivazione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico</t>
+  </si>
+  <si>
+    <t>motivazione</t>
+  </si>
+  <si>
     <t>Regime patrimoniale - Atto Notarile</t>
   </si>
   <si>
@@ -530,27 +533,6 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.nominaAssistenteLegale</t>
-  </si>
-  <si>
     <t>Interprete</t>
   </si>
   <si>
@@ -614,16 +596,10 @@
     <t>estintaOpposizione</t>
   </si>
   <si>
-    <t>Difetto di età</t>
-  </si>
-  <si>
-    <t>difettoEta</t>
-  </si>
-  <si>
-    <t>Parentela (ovvero: affinità; ovvero: affiliazione)</t>
-  </si>
-  <si>
-    <t>impedimentoParentela</t>
+    <t>Impedimento generico</t>
+  </si>
+  <si>
+    <t>impedimentoGenerico</t>
   </si>
   <si>
     <t>Scelta del regime patrimoniale</t>
@@ -712,16 +688,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G279"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.7734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="81.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="69.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
   </cols>
@@ -4463,7 +4439,7 @@
         <v>143</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188">
@@ -4483,7 +4459,7 @@
         <v>145</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189">
@@ -4503,7 +4479,7 @@
         <v>147</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190">
@@ -4591,7 +4567,7 @@
         <v>156</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>11</v>
@@ -4600,87 +4576,87 @@
         <v>157</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>9</v>
@@ -4688,19 +4664,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4708,19 +4684,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4728,19 +4704,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4748,39 +4724,39 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>9</v>
@@ -4788,19 +4764,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>9</v>
@@ -4808,19 +4784,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>9</v>
@@ -4828,19 +4804,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -4848,99 +4824,99 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
@@ -4948,39 +4924,39 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
@@ -4988,39 +4964,39 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="E214" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F214" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5028,39 +5004,39 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>9</v>
@@ -5068,39 +5044,39 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5108,39 +5084,39 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5148,39 +5124,39 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5188,119 +5164,119 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5308,39 +5284,39 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5348,39 +5324,39 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5388,19 +5364,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5408,19 +5384,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5428,19 +5404,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5448,19 +5424,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5468,19 +5444,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5488,19 +5464,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5508,19 +5484,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>9</v>
@@ -5528,781 +5504,21 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F247" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F257" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F258" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F263" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E272" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F276" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F277" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F279" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="218">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -416,24 +422,36 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+  </si>
+  <si>
     <t>Testimone 2</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+  </si>
+  <si>
     <t>Testimone 3</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+  </si>
+  <si>
     <t>Testimone 4</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+  </si>
+  <si>
     <t>Opposizione - Sentenza di rigetto</t>
   </si>
   <si>
@@ -446,6 +464,9 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.rigettoOpposizione,=,false}</t>
+  </si>
+  <si>
     <t>Estremi documento</t>
   </si>
   <si>
@@ -491,12 +512,18 @@
     <t>legge</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3}</t>
+  </si>
+  <si>
     <t>Impedimento Generico</t>
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.impedimentoGenerico,=,0}</t>
+  </si>
+  <si>
     <t>Motivazione</t>
   </si>
   <si>
@@ -515,6 +542,9 @@
     <t>nomeNotaio</t>
   </si>
   <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false}</t>
+  </si>
+  <si>
     <t>Cognome Notaio</t>
   </si>
   <si>
@@ -542,6 +572,9 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
+  </si>
+  <si>
     <t>195,196</t>
   </si>
   <si>
@@ -624,6 +657,9 @@
   </si>
   <si>
     <t>tipoAnnotazione</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1}</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -688,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -700,6 +736,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="66.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -721,565 +758,652 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1301,4225 +1425,4861 @@
       <c r="F30" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C200" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="219">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,106 +32,109 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Certificato della richiesta di costituzione 1</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Certificato della richiesta di costituzione 2</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Rigetto del Tribunale all'opposizione</t>
+  </si>
+  <si>
+    <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
+  </si>
+  <si>
+    <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
+  </si>
+  <si>
+    <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121.3</t>
+  </si>
+  <si>
+    <t>73-bis</t>
+  </si>
+  <si>
+    <t>73-ter</t>
+  </si>
+  <si>
+    <t>73-quater</t>
+  </si>
+  <si>
+    <t>73-sexies</t>
+  </si>
+  <si>
+    <t>73-septies</t>
+  </si>
+  <si>
+    <t>73-octies</t>
+  </si>
+  <si>
+    <t>73-nonies</t>
+  </si>
+  <si>
+    <t>73-decies</t>
+  </si>
+  <si>
+    <t>73-undecies</t>
+  </si>
+  <si>
+    <t>73-duodecies</t>
+  </si>
+  <si>
+    <t>73-terdecies</t>
+  </si>
+  <si>
+    <t>73-quaterdecies</t>
+  </si>
+  <si>
+    <t>73-quinquiesdecies</t>
+  </si>
+  <si>
+    <t>73-sexiesdecies</t>
+  </si>
+  <si>
+    <t>73-septiesdecies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Certificato della richiesta di costituzione 1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Certificato della richiesta di costituzione 2</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Rigetto del Tribunale all'opposizione</t>
-  </si>
-  <si>
-    <t>Ordinanza che dichiara estinto il giudizio di opposizione</t>
-  </si>
-  <si>
-    <t>Decreto del tribunale per autorizzazione nonostante impedimento di età</t>
-  </si>
-  <si>
-    <t>Decreto del tribunale per autorizzazione nonostante impedimento di affinità o affiliazione</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121.3</t>
-  </si>
-  <si>
-    <t>73-bis</t>
-  </si>
-  <si>
-    <t>73-ter</t>
-  </si>
-  <si>
-    <t>73-quater</t>
-  </si>
-  <si>
-    <t>73-sexies</t>
-  </si>
-  <si>
-    <t>73-septies</t>
-  </si>
-  <si>
-    <t>73-octies</t>
-  </si>
-  <si>
-    <t>73-nonies</t>
-  </si>
-  <si>
-    <t>73-decies</t>
-  </si>
-  <si>
-    <t>73-undecies</t>
-  </si>
-  <si>
-    <t>73-duodecies</t>
-  </si>
-  <si>
-    <t>73-terdecies</t>
-  </si>
-  <si>
-    <t>73-quaterdecies</t>
-  </si>
-  <si>
-    <t>73-quinquiesdecies</t>
-  </si>
-  <si>
-    <t>73-sexiesdecies</t>
-  </si>
-  <si>
-    <t>73-septiesdecies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -1426,4860 +1429,4860 @@
         <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F214" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F222" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G222" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G222" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F225" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -425,7 +425,7 @@
     <t>evento.datiEventoUnioneCivile.testimone1</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,1</t>
   </si>
   <si>
     <t>Testimone 2</t>
@@ -434,7 +434,7 @@
     <t>evento.datiEventoUnioneCivile.testimone2</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,2</t>
   </si>
   <si>
     <t>Testimone 3</t>
@@ -443,7 +443,7 @@
     <t>evento.datiEventoUnioneCivile.testimone3</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,3</t>
   </si>
   <si>
     <t>Testimone 4</t>
@@ -452,7 +452,7 @@
     <t>evento.datiEventoUnioneCivile.testimone4</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4}</t>
+    <t>evento.datiEventoUnioneCivile.numeroTestimoni,&lt;,4</t>
   </si>
   <si>
     <t>Opposizione - Sentenza di rigetto</t>
@@ -467,7 +467,7 @@
     <t>dataTrascrizione</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.rigettoOpposizione,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.rigettoOpposizione,=,false</t>
   </si>
   <si>
     <t>Estremi documento</t>
@@ -515,7 +515,7 @@
     <t>legge</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,!=,3</t>
   </si>
   <si>
     <t>Impedimento Generico</t>
@@ -524,7 +524,7 @@
     <t>evento.datiEventoUnioneCivile.soggettoImpedimentoGenerico.certificato</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.impedimentoGenerico,=,0}</t>
+    <t>evento.datiEventoUnioneCivile.impedimentoGenerico,=,0</t>
   </si>
   <si>
     <t>Motivazione</t>
@@ -545,7 +545,7 @@
     <t>nomeNotaio</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.attoNotarile,=,false</t>
   </si>
   <si>
     <t>Cognome Notaio</t>
@@ -575,7 +575,7 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>195,196</t>
@@ -662,7 +662,7 @@
     <t>tipoAnnotazione</t>
   </si>
   <si>
-    <t>{evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1}</t>
+    <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -739,7 +739,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="66.2421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="64.85546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="221">
   <si>
     <t>Sezione</t>
   </si>
@@ -663,6 +663,12 @@
   </si>
   <si>
     <t>evento.datiEventoUnioneCivile.regimePatrimoniale.tipo,=,1</t>
+  </si>
+  <si>
+    <t>Dichiara come non certificabile</t>
+  </si>
+  <si>
+    <t>flagAnnotazioneNonCertificabile</t>
   </si>
   <si>
     <t>Testo Annotazione Contestuale</t>
@@ -727,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6285,6 +6291,29 @@
         <v>216</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="221">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,19 +215,145 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare l’unione civile</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>cognomeOfficiante</t>
+    <t>evento.datiEventoUnioneCivile.officianteEvento</t>
+  </si>
+  <si>
+    <t>cognome</t>
   </si>
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>nomeOfficiante</t>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Dati Generali</t>
@@ -284,133 +410,7 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,73-undecies,73-decies,73-duodecies,121.3</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -733,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1673,7 +1673,7 @@
         <v>66</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
@@ -1682,7 +1682,7 @@
         <v>54</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1696,19 @@
         <v>66</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>45</v>
@@ -1719,16 +1719,16 @@
         <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1739,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1785,16 +1785,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>79</v>
@@ -1808,16 +1808,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>81</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>83</v>
@@ -1854,16 +1854,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>85</v>
@@ -1877,19 +1877,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>45</v>
@@ -1923,19 +1923,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>45</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>45</v>
@@ -1992,22 +1992,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>45</v>
@@ -2015,19 +2015,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>45</v>
@@ -2061,19 +2061,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2084,19 +2084,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2107,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2130,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2153,22 +2153,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>45</v>
@@ -2176,19 +2176,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2199,22 +2199,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>45</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2245,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2268,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2291,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2337,22 +2337,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>45</v>
@@ -2360,22 +2360,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>45</v>
@@ -2383,22 +2383,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>45</v>
@@ -2406,22 +2406,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>45</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>45</v>
@@ -2452,22 +2452,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>45</v>
@@ -2475,19 +2475,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2498,22 +2498,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>45</v>
@@ -2521,19 +2521,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>45</v>
@@ -2567,19 +2567,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2590,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2613,22 +2613,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>45</v>
@@ -2636,19 +2636,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2659,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
@@ -2682,19 +2682,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2705,22 +2705,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>45</v>
@@ -2728,19 +2728,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2751,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2774,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2797,22 +2797,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>45</v>
@@ -2820,19 +2820,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2843,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
@@ -2866,22 +2866,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>45</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -2912,22 +2912,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>45</v>
@@ -2935,19 +2935,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2961,19 @@
         <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>45</v>
@@ -2984,7 +2984,7 @@
         <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2993,7 +2993,7 @@
         <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3004,462 +3004,462 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
@@ -3467,19 +3467,19 @@
         <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>137</v>
@@ -3490,7 +3490,7 @@
         <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3499,7 +3499,7 @@
         <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3510,462 +3510,462 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141">
@@ -3973,19 +3973,19 @@
         <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>140</v>
@@ -3996,7 +3996,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -4005,7 +4005,7 @@
         <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -4016,462 +4016,462 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163">
@@ -4479,19 +4479,19 @@
         <v>141</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>143</v>
@@ -4502,7 +4502,7 @@
         <v>141</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4511,7 +4511,7 @@
         <v>142</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4522,462 +4522,462 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185">
@@ -4985,19 +4985,19 @@
         <v>144</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>146</v>
@@ -5008,7 +5008,7 @@
         <v>144</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -5017,7 +5017,7 @@
         <v>145</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5028,922 +5028,922 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="227">
@@ -5951,19 +5951,19 @@
         <v>184</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>187</v>
@@ -5974,7 +5974,7 @@
         <v>184</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5983,7 +5983,7 @@
         <v>185</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
@@ -5994,323 +5994,783 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B260" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2" t="s">
+      <c r="C262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E242" s="2" t="s">
+      <c r="E262" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F242" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="2" t="s">
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>216</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="223">
   <si>
     <t>Sezione</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -733,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2136,7 +2142,7 @@
         <v>108</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>70</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2251,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2268,16 +2274,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>123</v>
@@ -2291,7 +2297,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>124</v>
@@ -2300,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>125</v>
@@ -2314,7 +2320,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>126</v>
@@ -2323,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>127</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2360,22 +2366,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>45</v>
@@ -2383,22 +2389,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>45</v>
@@ -2406,7 +2412,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>124</v>
@@ -2415,13 +2421,13 @@
         <v>12</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>45</v>
@@ -2429,7 +2435,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>126</v>
@@ -2438,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>127</v>
@@ -2455,7 +2461,7 @@
         <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
@@ -2464,10 +2470,10 @@
         <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>45</v>
@@ -2475,22 +2481,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>45</v>
@@ -2498,22 +2504,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>45</v>
@@ -2521,22 +2527,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>45</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2596,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2613,22 +2619,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>45</v>
@@ -2636,22 +2642,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2659,22 +2665,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -2682,22 +2688,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
@@ -2705,22 +2711,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>45</v>
@@ -2728,19 +2734,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2757,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2780,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2797,22 +2803,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>45</v>
@@ -2820,19 +2826,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2849,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>18</v>
@@ -2866,22 +2872,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>45</v>
@@ -2889,22 +2895,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -2912,22 +2918,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>45</v>
@@ -2935,19 +2941,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2958,22 +2964,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>45</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3004,22 +3010,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>45</v>
@@ -3027,19 +3033,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3050,22 +3056,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>45</v>
@@ -3073,19 +3079,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3102,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3119,22 +3125,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>45</v>
@@ -3142,19 +3148,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>18</v>
@@ -3188,19 +3194,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3211,22 +3217,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>45</v>
@@ -3234,22 +3240,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>45</v>
@@ -3257,19 +3263,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3286,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3303,22 +3309,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>45</v>
@@ -3326,19 +3332,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3349,22 +3355,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>45</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>18</v>
@@ -3395,19 +3401,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3418,22 +3424,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>45</v>
@@ -3441,22 +3447,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>45</v>
@@ -3467,22 +3473,22 @@
         <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120">
@@ -3490,7 +3496,7 @@
         <v>135</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3499,13 +3505,13 @@
         <v>136</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121">
@@ -3513,3135 +3519,3135 @@
         <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="E142" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
+      <c r="E143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="E164" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="E166" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="E167" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
+      <c r="E188" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="E207" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E208" s="2" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E209" s="2" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="E213" s="2" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E216" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
+      <c r="F221" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G221" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F250" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G250" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F252" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F254" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F255" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6650,7 +6656,7 @@
         <v>54</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6661,22 +6667,22 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>45</v>
@@ -6684,19 +6690,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -6707,71 +6713,255 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="C267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D262" s="2" t="s">
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F262" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G262" s="2" t="s">
+      <c r="B270" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="2" t="s">
         <v>216</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -3798,7 +3798,7 @@
         <v>92</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>138</v>
@@ -3821,7 +3821,7 @@
         <v>94</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>138</v>
@@ -3830,7 +3830,7 @@
         <v>95</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>139</v>
@@ -4327,7 +4327,7 @@
         <v>92</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>141</v>
@@ -4350,7 +4350,7 @@
         <v>94</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>141</v>
@@ -4359,7 +4359,7 @@
         <v>95</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>142</v>
@@ -4856,7 +4856,7 @@
         <v>92</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>144</v>
@@ -4879,7 +4879,7 @@
         <v>94</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>144</v>
@@ -4888,7 +4888,7 @@
         <v>95</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>145</v>
@@ -5385,7 +5385,7 @@
         <v>92</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>147</v>
@@ -5408,7 +5408,7 @@
         <v>94</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>147</v>
@@ -5417,7 +5417,7 @@
         <v>95</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>148</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="224">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -581,10 +581,13 @@
     <t>73-sexiesdecies,73-terdecies,73-nonies,73-quinquiesdecies,73-undecies,73-septiesdecies,195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -751,7 +754,7 @@
     <col min="4" max="4" width="66.99609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="88.45703125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="64.85546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6624,7 +6627,7 @@
         <v>186</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6644,10 +6647,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6656,7 +6659,7 @@
         <v>54</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6667,10 +6670,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
@@ -6679,7 +6682,7 @@
         <v>54</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>29</v>
@@ -6690,10 +6693,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6702,7 +6705,7 @@
         <v>54</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -6713,10 +6716,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
@@ -6725,7 +6728,7 @@
         <v>54</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>29</v>
@@ -6736,10 +6739,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6748,7 +6751,7 @@
         <v>43</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -6759,10 +6762,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6771,7 +6774,7 @@
         <v>54</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -6782,10 +6785,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6794,7 +6797,7 @@
         <v>54</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -6805,10 +6808,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6817,7 +6820,7 @@
         <v>54</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -6828,10 +6831,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6840,7 +6843,7 @@
         <v>54</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -6851,10 +6854,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6863,7 +6866,7 @@
         <v>167</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -6874,10 +6877,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6886,7 +6889,7 @@
         <v>167</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -6897,71 +6900,71 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="223">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Verbale di richiesta dell'unione civile 1</t>
+    <t>Certificato della richiesta di costituzione 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Verbale di richiesta dell'unione civile 2</t>
+    <t>Certificato della richiesta di costituzione 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -585,9 +585,6 @@
   </si>
   <si>
     <t>195,196</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -6627,7 +6624,7 @@
         <v>186</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6647,10 +6644,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6659,7 +6656,7 @@
         <v>54</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6670,10 +6667,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
@@ -6682,7 +6679,7 @@
         <v>54</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>29</v>
@@ -6693,10 +6690,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6705,7 +6702,7 @@
         <v>54</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -6716,10 +6713,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
@@ -6728,7 +6725,7 @@
         <v>54</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>29</v>
@@ -6739,10 +6736,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6751,7 +6748,7 @@
         <v>43</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -6762,10 +6759,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6774,7 +6771,7 @@
         <v>54</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -6785,10 +6782,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6797,7 +6794,7 @@
         <v>54</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -6808,10 +6805,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6820,7 +6817,7 @@
         <v>54</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -6831,10 +6828,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6843,7 +6840,7 @@
         <v>54</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -6854,10 +6851,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6866,7 +6863,7 @@
         <v>167</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -6877,10 +6874,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6889,7 +6886,7 @@
         <v>167</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -6900,71 +6897,71 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268" s="2" t="s">
+      <c r="E268" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E268" s="2" t="s">
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="224">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 1</t>
+    <t>Verbale di richiesta dell'unione civile 1</t>
   </si>
   <si>
     <t>SI</t>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Certificato della richiesta di costituzione 2</t>
+    <t>Verbale di richiesta dell'unione civile 2</t>
   </si>
   <si>
     <t>NO</t>
@@ -585,6 +585,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -6624,7 +6627,7 @@
         <v>186</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6644,10 +6647,10 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
@@ -6656,7 +6659,7 @@
         <v>54</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6667,10 +6670,10 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
@@ -6679,7 +6682,7 @@
         <v>54</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>29</v>
@@ -6690,10 +6693,10 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>9</v>
@@ -6702,7 +6705,7 @@
         <v>54</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
@@ -6713,10 +6716,10 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
@@ -6725,7 +6728,7 @@
         <v>54</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>29</v>
@@ -6736,10 +6739,10 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>9</v>
@@ -6748,7 +6751,7 @@
         <v>43</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
@@ -6759,10 +6762,10 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
@@ -6771,7 +6774,7 @@
         <v>54</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
@@ -6782,10 +6785,10 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
@@ -6794,7 +6797,7 @@
         <v>54</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
@@ -6805,10 +6808,10 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
@@ -6817,7 +6820,7 @@
         <v>54</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
@@ -6828,10 +6831,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6840,7 +6843,7 @@
         <v>54</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -6851,10 +6854,10 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
@@ -6863,7 +6866,7 @@
         <v>167</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
@@ -6874,10 +6877,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
@@ -6886,7 +6889,7 @@
         <v>167</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -6897,71 +6900,71 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="232">
   <si>
     <t>Sezione</t>
   </si>
@@ -417,6 +417,30 @@
   </si>
   <si>
     <t>73-sexiesdecies,73-terdecies,73-octies,73-nonies,73-undecies,73-decies,73-duodecies,121.3</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -742,7 +766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3013,22 +3037,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>45</v>
@@ -3036,22 +3060,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>45</v>
@@ -3059,22 +3083,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>45</v>
@@ -3082,22 +3106,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>45</v>
@@ -3105,22 +3129,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>45</v>
@@ -3128,19 +3152,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3151,22 +3175,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3174,22 +3198,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3197,19 +3221,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3220,22 +3244,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>45</v>
@@ -3243,22 +3267,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>45</v>
@@ -3266,22 +3290,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>45</v>
@@ -3289,19 +3313,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3312,22 +3336,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>45</v>
@@ -3335,22 +3359,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>45</v>
@@ -3358,19 +3382,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3381,22 +3405,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>45</v>
@@ -3404,19 +3428,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3427,22 +3451,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>45</v>
@@ -3450,22 +3474,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>45</v>
@@ -3473,22 +3497,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>45</v>
@@ -3496,19 +3520,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3519,22 +3543,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>45</v>
@@ -3542,3299 +3566,3299 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E226" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F226" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G231" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E258" s="2" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
@@ -6843,7 +6867,7 @@
         <v>54</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
@@ -6854,22 +6878,22 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>45</v>
@@ -6877,19 +6901,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
@@ -6900,71 +6924,255 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="C272" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E270" s="2" t="s">
+      <c r="F275" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F270" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="2" t="s">
-        <v>219</v>
+      <c r="B276" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="241">
   <si>
     <t>Sezione</t>
   </si>
@@ -170,15 +170,42 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data Evento</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile</t>
+  </si>
+  <si>
+    <t>dataEvento</t>
+  </si>
+  <si>
+    <t>Ora Evento</t>
+  </si>
+  <si>
+    <t>oraEvento</t>
+  </si>
+  <si>
+    <t>Minuti Evento</t>
+  </si>
+  <si>
+    <t>minutoEvento</t>
+  </si>
+  <si>
+    <t>Documenti presentati</t>
+  </si>
+  <si>
+    <t>datiProdotti</t>
+  </si>
+  <si>
     <t>Delega da altro comune</t>
   </si>
   <si>
     <t>Provincia comune delegante</t>
   </si>
   <si>
-    <t>evento.datiEventoUnioneCivile</t>
-  </si>
-  <si>
     <t>idProvinciaComuneDelegante</t>
   </si>
   <si>
@@ -362,15 +389,6 @@
     <t>flagFirmatario</t>
   </si>
   <si>
-    <t>Dati Generali</t>
-  </si>
-  <si>
-    <t>Documenti presentati</t>
-  </si>
-  <si>
-    <t>datiProdotti</t>
-  </si>
-  <si>
     <t>Certificato di richiesta di costituzione 1</t>
   </si>
   <si>
@@ -534,6 +552,15 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Opposizione - Estinzione giudizio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.provvedimentoEstinzioneOpposizione</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.estintaOpposizione,=,false</t>
   </si>
   <si>
     <t>Legge regime patrimoniale</t>
@@ -766,7 +793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1643,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>61</v>
@@ -1657,10 +1684,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1669,7 +1696,7 @@
         <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1680,10 +1707,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -1692,7 +1719,7 @@
         <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1703,7 +1730,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>67</v>
@@ -1726,7 +1753,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>69</v>
@@ -1735,10 +1762,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1776,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1799,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1795,16 +1822,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>77</v>
@@ -1818,19 +1845,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1868,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1891,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1914,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1937,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1960,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1983,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1979,19 +2006,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2029,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2052,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -2048,19 +2075,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2071,19 +2098,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2121,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2144,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2167,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2190,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2213,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2209,19 +2236,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2259,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2255,16 +2282,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>118</v>
@@ -2278,19 +2305,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2328,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2351,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2347,7 +2374,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>126</v>
@@ -2356,10 +2383,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2370,16 +2397,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>129</v>
@@ -2393,19 +2420,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2416,22 +2443,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>45</v>
@@ -2439,19 +2466,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2462,7 +2489,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>126</v>
@@ -2471,13 +2498,13 @@
         <v>12</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>45</v>
@@ -2485,16 +2512,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>129</v>
@@ -2508,22 +2535,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>45</v>
@@ -2531,22 +2558,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>45</v>
@@ -2554,22 +2581,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>45</v>
@@ -2577,22 +2604,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>45</v>
@@ -2600,19 +2627,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2623,19 +2650,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2646,19 +2673,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2669,22 +2696,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2692,19 +2719,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2715,22 +2742,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
@@ -2738,19 +2765,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>18</v>
@@ -2761,19 +2788,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2784,22 +2811,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>45</v>
@@ -2807,22 +2834,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>45</v>
@@ -2830,19 +2857,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2853,19 +2880,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2876,22 +2903,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>45</v>
@@ -2899,19 +2926,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2922,22 +2949,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -2945,19 +2972,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>18</v>
@@ -2968,19 +2995,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2991,22 +3018,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>45</v>
@@ -3014,22 +3041,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>45</v>
@@ -3037,19 +3064,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3060,22 +3087,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>45</v>
@@ -3083,19 +3110,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3106,7 +3133,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>141</v>
@@ -3115,13 +3142,13 @@
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>45</v>
@@ -3129,22 +3156,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>45</v>
@@ -3152,19 +3179,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3175,19 +3202,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>18</v>
@@ -3198,22 +3225,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3221,19 +3248,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3244,19 +3271,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3267,19 +3294,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3290,22 +3317,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>45</v>
@@ -3313,19 +3340,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3336,22 +3363,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>45</v>
@@ -3359,19 +3386,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>18</v>
@@ -3382,19 +3409,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3405,22 +3432,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>45</v>
@@ -3428,22 +3455,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>45</v>
@@ -3451,19 +3478,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3474,19 +3501,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3497,22 +3524,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>45</v>
@@ -3520,19 +3547,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3543,22 +3570,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>45</v>
@@ -3566,19 +3593,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
@@ -3589,19 +3616,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3612,22 +3639,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3635,22 +3662,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>45</v>
@@ -3658,19 +3685,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3681,22 +3708,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>45</v>
@@ -3704,19 +3731,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3727,7 +3754,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>141</v>
@@ -3736,13 +3763,13 @@
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>45</v>
@@ -3750,2215 +3777,2215 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>168</v>
@@ -5967,7 +5994,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>169</v>
@@ -5976,12 +6003,12 @@
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>170</v>
@@ -5990,7 +6017,7 @@
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>171</v>
@@ -5999,12 +6026,12 @@
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>172</v>
@@ -6013,7 +6040,7 @@
         <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>173</v>
@@ -6022,1082 +6049,1082 @@
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F229" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C231" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F231" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="E237" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E239" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C248" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="F251" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="E267" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F268" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G268" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
@@ -7108,71 +7135,301 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="F281" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C278" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E278" s="2" t="s">
+      <c r="C285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F278" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>227</v>
+      <c r="F285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="252">
   <si>
     <t>Sezione</t>
   </si>
@@ -200,7 +200,19 @@
     <t>datiProdotti</t>
   </si>
   <si>
-    <t>Delega da altro comune</t>
+    <t>Delega da altro comune o consolato</t>
+  </si>
+  <si>
+    <t>Stato delegante</t>
+  </si>
+  <si>
+    <t>idNazioneDelegante</t>
+  </si>
+  <si>
+    <t>Stato delegante - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneDelegante</t>
   </si>
   <si>
     <t>Provincia comune delegante</t>
@@ -209,196 +221,217 @@
     <t>idProvinciaComuneDelegante</t>
   </si>
   <si>
+    <t>Provincia delegante descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaComuneDelegante</t>
+  </si>
+  <si>
+    <t>Comune delegante</t>
+  </si>
+  <si>
+    <t>comuneDelegante</t>
+  </si>
+  <si>
+    <t>Comune delegante descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneDelegante</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato Delegante</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolatoDelegante</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato Delegante - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolatoDelegante</t>
+  </si>
+  <si>
+    <t>Data delega</t>
+  </si>
+  <si>
+    <t>dataDelega</t>
+  </si>
+  <si>
+    <t>Testo delega</t>
+  </si>
+  <si>
+    <t>testoDelega</t>
+  </si>
+  <si>
+    <t>Officiante</t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato a celebrare l’unione civile</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.officianteEvento</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Certificato di richiesta di costituzione 1</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.certificatoCostituzione1</t>
+  </si>
+  <si>
+    <t>idProvinciaCertificatoCostituzione</t>
+  </si>
+  <si>
     <t>Provincia - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaComuneDelegante</t>
-  </si>
-  <si>
-    <t>Comune delegante</t>
-  </si>
-  <si>
-    <t>comuneDelegante</t>
-  </si>
-  <si>
-    <t>Comune delegante - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneDelegante</t>
-  </si>
-  <si>
-    <t>Data delega</t>
-  </si>
-  <si>
-    <t>dataDelega</t>
-  </si>
-  <si>
-    <t>Testo delega</t>
-  </si>
-  <si>
-    <t>testoDelega</t>
-  </si>
-  <si>
-    <t>Officiante</t>
-  </si>
-  <si>
-    <t>Ufficiale di stato civile delegato a celebrare l’unione civile</t>
-  </si>
-  <si>
-    <t>officiante</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.officianteEvento</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Certificato di richiesta di costituzione 1</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>evento.datiEventoUnioneCivile.certificatoCostituzione1</t>
-  </si>
-  <si>
-    <t>idProvinciaCertificatoCostituzione</t>
   </si>
   <si>
     <t>siglaProvinciaCertificatoCostituzione</t>
@@ -793,7 +826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1736,7 +1769,7 @@
         <v>67</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>54</v>
@@ -1759,7 +1792,7 @@
         <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>54</v>
@@ -1768,7 +1801,7 @@
         <v>70</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>45</v>
@@ -1782,7 +1815,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>54</v>
@@ -1805,7 +1838,7 @@
         <v>73</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>54</v>
@@ -1814,7 +1847,7 @@
         <v>74</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>45</v>
@@ -1822,19 +1855,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1845,22 +1878,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>45</v>
@@ -1868,19 +1901,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1924,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1947,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1937,16 +1970,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>88</v>
@@ -1960,16 +1993,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>90</v>
@@ -1983,7 +2016,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>91</v>
@@ -1992,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>92</v>
@@ -2006,7 +2039,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>93</v>
@@ -2015,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>94</v>
@@ -2029,7 +2062,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>95</v>
@@ -2038,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>96</v>
@@ -2052,7 +2085,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>97</v>
@@ -2061,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>98</v>
@@ -2075,7 +2108,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>99</v>
@@ -2084,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>100</v>
@@ -2098,7 +2131,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>101</v>
@@ -2107,7 +2140,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>102</v>
@@ -2121,7 +2154,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>103</v>
@@ -2130,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>104</v>
@@ -2144,7 +2177,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>105</v>
@@ -2153,7 +2186,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>106</v>
@@ -2167,7 +2200,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>107</v>
@@ -2176,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>108</v>
@@ -2190,7 +2223,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>109</v>
@@ -2199,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>110</v>
@@ -2213,7 +2246,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>111</v>
@@ -2222,7 +2255,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>112</v>
@@ -2236,7 +2269,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>113</v>
@@ -2245,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>114</v>
@@ -2259,7 +2292,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>115</v>
@@ -2268,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>116</v>
@@ -2282,7 +2315,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>117</v>
@@ -2291,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>118</v>
@@ -2305,16 +2338,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>120</v>
@@ -2328,16 +2361,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>122</v>
@@ -2351,16 +2384,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>124</v>
@@ -2374,19 +2407,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2430,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2453,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2476,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2499,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2522,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2512,22 +2545,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>45</v>
@@ -2535,19 +2568,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2558,22 +2591,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>45</v>
@@ -2581,22 +2614,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>45</v>
@@ -2604,22 +2637,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>45</v>
@@ -2627,22 +2660,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>45</v>
@@ -2650,19 +2683,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2673,22 +2706,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>45</v>
@@ -2696,22 +2729,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>45</v>
@@ -2719,22 +2752,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -2742,19 +2775,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2765,22 +2798,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>45</v>
@@ -2788,19 +2821,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2811,22 +2844,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>45</v>
@@ -2834,22 +2867,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>45</v>
@@ -2857,19 +2890,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2913,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2903,22 +2936,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>45</v>
@@ -2926,19 +2959,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2949,22 +2982,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -2972,19 +3005,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>18</v>
@@ -2995,19 +3028,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3018,22 +3051,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>45</v>
@@ -3041,22 +3074,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>45</v>
@@ -3064,19 +3097,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3120,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3110,22 +3143,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>45</v>
@@ -3133,19 +3166,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3189,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
@@ -3179,22 +3212,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>45</v>
@@ -3202,22 +3235,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3228,19 +3261,19 @@
         <v>149</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3251,7 +3284,7 @@
         <v>149</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3260,7 +3293,7 @@
         <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3274,16 +3307,16 @@
         <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3297,19 +3330,19 @@
         <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>45</v>
@@ -3320,16 +3353,16 @@
         <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3343,19 +3376,19 @@
         <v>149</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>45</v>
@@ -3363,22 +3396,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>45</v>
@@ -3386,22 +3419,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>45</v>
@@ -3409,19 +3442,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3432,22 +3465,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>45</v>
@@ -3455,22 +3488,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>45</v>
@@ -3478,19 +3511,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3501,19 +3534,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3524,19 +3557,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3547,22 +3580,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>45</v>
@@ -3570,19 +3603,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3593,19 +3626,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
@@ -3616,22 +3649,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>45</v>
@@ -3639,22 +3672,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3662,22 +3695,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>45</v>
@@ -3685,19 +3718,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3708,19 +3741,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3731,19 +3764,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3754,22 +3787,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>45</v>
@@ -3777,22 +3810,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>45</v>
@@ -3800,22 +3833,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>45</v>
@@ -3823,19 +3856,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>18</v>
@@ -3846,3590 +3879,3866 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E228" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E235" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="F239" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C241" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F241" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F249" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F258" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="F259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="F262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E278" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G288" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="F292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E288" s="2" t="s">
+      <c r="C296" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F288" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>236</v>
+      <c r="F296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="251">
   <si>
     <t>Sezione</t>
   </si>
@@ -666,9 +666,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>195,196</t>
   </si>
   <si>
     <t>Firmatario</t>
@@ -7068,7 +7065,7 @@
         <v>104</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>217</v>
@@ -7137,7 +7134,7 @@
         <v>110</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>217</v>
@@ -7275,7 +7272,7 @@
         <v>122</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>217</v>
@@ -7344,7 +7341,7 @@
         <v>128</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G283" s="2" t="s">
         <v>217</v>
@@ -7401,7 +7398,7 @@
         <v>214</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
@@ -7421,10 +7418,10 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -7433,7 +7430,7 @@
         <v>54</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
@@ -7444,10 +7441,10 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
@@ -7456,7 +7453,7 @@
         <v>54</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>29</v>
@@ -7467,10 +7464,10 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
@@ -7479,7 +7476,7 @@
         <v>54</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
@@ -7490,10 +7487,10 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>12</v>
@@ -7502,7 +7499,7 @@
         <v>54</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>29</v>
@@ -7513,10 +7510,10 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
@@ -7525,7 +7522,7 @@
         <v>43</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
@@ -7536,10 +7533,10 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
@@ -7548,7 +7545,7 @@
         <v>54</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
@@ -7559,10 +7556,10 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
@@ -7571,7 +7568,7 @@
         <v>54</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
@@ -7582,10 +7579,10 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
@@ -7594,7 +7591,7 @@
         <v>54</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
@@ -7605,10 +7602,10 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
@@ -7617,7 +7614,7 @@
         <v>54</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
@@ -7628,10 +7625,10 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
@@ -7640,7 +7637,7 @@
         <v>195</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
@@ -7651,10 +7648,10 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
@@ -7663,7 +7660,7 @@
         <v>195</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
@@ -7674,71 +7671,71 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="C298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D298" s="2" t="s">
+      <c r="E298" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E298" s="2" t="s">
+      <c r="F298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="278">
   <si>
     <t>Sezione</t>
   </si>
@@ -498,6 +498,87 @@
   </si>
   <si>
     <t>evento.intestatari[1]</t>
+  </si>
+  <si>
+    <t>Atto di Nascita Unito Civilmente 1</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge1</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto di Nascita Unito Civilmente 2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoUnioneCivile.attoNascitaConiuge2</t>
   </si>
   <si>
     <t>Testimone 1</t>
@@ -823,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4040,22 +4121,22 @@
         <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141">
@@ -4063,22 +4144,22 @@
         <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142">
@@ -4086,22 +4167,22 @@
         <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143">
@@ -4109,22 +4190,22 @@
         <v>162</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
@@ -4132,22 +4213,22 @@
         <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145">
@@ -4155,22 +4236,22 @@
         <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146">
@@ -4178,22 +4259,22 @@
         <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147">
@@ -4201,22 +4282,22 @@
         <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148">
@@ -4224,22 +4305,22 @@
         <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149">
@@ -4247,22 +4328,22 @@
         <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150">
@@ -4270,22 +4351,22 @@
         <v>162</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151">
@@ -4293,303 +4374,303 @@
         <v>162</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>86</v>
@@ -4598,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>88</v>
@@ -4607,12 +4688,12 @@
         <v>18</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>89</v>
@@ -4621,7 +4702,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>90</v>
@@ -4630,12 +4711,12 @@
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>91</v>
@@ -4644,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>92</v>
@@ -4653,12 +4734,12 @@
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>93</v>
@@ -4667,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>94</v>
@@ -4676,12 +4757,12 @@
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>95</v>
@@ -4690,7 +4771,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>96</v>
@@ -4699,12 +4780,12 @@
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>97</v>
@@ -4713,7 +4794,7 @@
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>98</v>
@@ -4722,12 +4803,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>99</v>
@@ -4736,7 +4817,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>100</v>
@@ -4745,12 +4826,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>101</v>
@@ -4759,7 +4840,7 @@
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>102</v>
@@ -4768,12 +4849,12 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>103</v>
@@ -4782,7 +4863,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>104</v>
@@ -4791,12 +4872,12 @@
         <v>18</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>105</v>
@@ -4805,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>106</v>
@@ -4814,12 +4895,12 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>107</v>
@@ -4828,7 +4909,7 @@
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>108</v>
@@ -4837,12 +4918,12 @@
         <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>109</v>
@@ -4851,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>110</v>
@@ -4860,12 +4941,12 @@
         <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>111</v>
@@ -4874,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>112</v>
@@ -4883,12 +4964,12 @@
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>113</v>
@@ -4897,7 +4978,7 @@
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>114</v>
@@ -4906,12 +4987,12 @@
         <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>115</v>
@@ -4920,7 +5001,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>116</v>
@@ -4929,12 +5010,12 @@
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>117</v>
@@ -4943,7 +5024,7 @@
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>118</v>
@@ -4952,12 +5033,12 @@
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>119</v>
@@ -4966,7 +5047,7 @@
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>120</v>
@@ -4975,12 +5056,12 @@
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>121</v>
@@ -4989,7 +5070,7 @@
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>122</v>
@@ -4998,12 +5079,12 @@
         <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>123</v>
@@ -5012,7 +5093,7 @@
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>124</v>
@@ -5021,12 +5102,12 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>125</v>
@@ -5035,7 +5116,7 @@
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>126</v>
@@ -5044,12 +5125,12 @@
         <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>127</v>
@@ -5058,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>128</v>
@@ -5067,12 +5148,12 @@
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>129</v>
@@ -5081,7 +5162,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>130</v>
@@ -5090,12 +5171,12 @@
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>131</v>
@@ -5104,7 +5185,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>132</v>
@@ -5113,12 +5194,12 @@
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>133</v>
@@ -5127,7 +5208,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>134</v>
@@ -5136,12 +5217,12 @@
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>86</v>
@@ -5150,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>88</v>
@@ -5159,12 +5240,12 @@
         <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>89</v>
@@ -5173,7 +5254,7 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>90</v>
@@ -5182,12 +5263,12 @@
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>91</v>
@@ -5196,7 +5277,7 @@
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>92</v>
@@ -5205,12 +5286,12 @@
         <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>93</v>
@@ -5219,7 +5300,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>94</v>
@@ -5228,12 +5309,12 @@
         <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>95</v>
@@ -5242,7 +5323,7 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>96</v>
@@ -5251,12 +5332,12 @@
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>97</v>
@@ -5265,7 +5346,7 @@
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>98</v>
@@ -5274,12 +5355,12 @@
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>99</v>
@@ -5288,7 +5369,7 @@
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>100</v>
@@ -5297,12 +5378,12 @@
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>101</v>
@@ -5311,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>102</v>
@@ -5320,12 +5401,12 @@
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>103</v>
@@ -5334,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>104</v>
@@ -5343,12 +5424,12 @@
         <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>105</v>
@@ -5357,7 +5438,7 @@
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>106</v>
@@ -5366,12 +5447,12 @@
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>107</v>
@@ -5380,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>108</v>
@@ -5389,12 +5470,12 @@
         <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>109</v>
@@ -5403,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>110</v>
@@ -5412,12 +5493,12 @@
         <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>111</v>
@@ -5426,7 +5507,7 @@
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>112</v>
@@ -5435,12 +5516,12 @@
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>113</v>
@@ -5449,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>114</v>
@@ -5458,12 +5539,12 @@
         <v>18</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>115</v>
@@ -5472,7 +5553,7 @@
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>116</v>
@@ -5481,12 +5562,12 @@
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>117</v>
@@ -5495,7 +5576,7 @@
         <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>118</v>
@@ -5504,12 +5585,12 @@
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>119</v>
@@ -5518,7 +5599,7 @@
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>120</v>
@@ -5527,12 +5608,12 @@
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>121</v>
@@ -5541,7 +5622,7 @@
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>122</v>
@@ -5550,12 +5631,12 @@
         <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>123</v>
@@ -5564,7 +5645,7 @@
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>124</v>
@@ -5573,12 +5654,12 @@
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>125</v>
@@ -5587,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>126</v>
@@ -5596,12 +5677,12 @@
         <v>18</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>127</v>
@@ -5610,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>128</v>
@@ -5619,12 +5700,12 @@
         <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>129</v>
@@ -5633,7 +5714,7 @@
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>130</v>
@@ -5642,12 +5723,12 @@
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>131</v>
@@ -5656,7 +5737,7 @@
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>132</v>
@@ -5665,12 +5746,12 @@
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>133</v>
@@ -5679,7 +5760,7 @@
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>134</v>
@@ -5688,12 +5769,12 @@
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>86</v>
@@ -5702,7 +5783,7 @@
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>88</v>
@@ -5711,12 +5792,12 @@
         <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>89</v>
@@ -5725,7 +5806,7 @@
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>90</v>
@@ -5734,12 +5815,12 @@
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>91</v>
@@ -5748,7 +5829,7 @@
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>92</v>
@@ -5757,12 +5838,12 @@
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>93</v>
@@ -5771,7 +5852,7 @@
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>94</v>
@@ -5780,12 +5861,12 @@
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>95</v>
@@ -5794,7 +5875,7 @@
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>96</v>
@@ -5803,12 +5884,12 @@
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>97</v>
@@ -5817,7 +5898,7 @@
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>98</v>
@@ -5826,12 +5907,12 @@
         <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>99</v>
@@ -5840,7 +5921,7 @@
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>100</v>
@@ -5849,12 +5930,12 @@
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>101</v>
@@ -5863,7 +5944,7 @@
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>102</v>
@@ -5872,12 +5953,12 @@
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>103</v>
@@ -5886,7 +5967,7 @@
         <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>104</v>
@@ -5895,12 +5976,12 @@
         <v>18</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>105</v>
@@ -5909,7 +5990,7 @@
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>106</v>
@@ -5918,12 +5999,12 @@
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>107</v>
@@ -5932,7 +6013,7 @@
         <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>108</v>
@@ -5941,12 +6022,12 @@
         <v>18</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>109</v>
@@ -5955,7 +6036,7 @@
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>110</v>
@@ -5964,12 +6045,12 @@
         <v>18</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>111</v>
@@ -5978,7 +6059,7 @@
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>112</v>
@@ -5987,12 +6068,12 @@
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>113</v>
@@ -6001,7 +6082,7 @@
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>114</v>
@@ -6010,12 +6091,12 @@
         <v>18</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>115</v>
@@ -6024,7 +6105,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>116</v>
@@ -6033,12 +6114,12 @@
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>117</v>
@@ -6047,7 +6128,7 @@
         <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>118</v>
@@ -6056,12 +6137,12 @@
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>119</v>
@@ -6070,7 +6151,7 @@
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>120</v>
@@ -6079,12 +6160,12 @@
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>121</v>
@@ -6093,7 +6174,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>122</v>
@@ -6102,12 +6183,12 @@
         <v>18</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>123</v>
@@ -6116,7 +6197,7 @@
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>124</v>
@@ -6125,12 +6206,12 @@
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>125</v>
@@ -6139,7 +6220,7 @@
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>126</v>
@@ -6148,12 +6229,12 @@
         <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>127</v>
@@ -6162,7 +6243,7 @@
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>128</v>
@@ -6171,12 +6252,12 @@
         <v>18</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>129</v>
@@ -6185,7 +6266,7 @@
         <v>9</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>130</v>
@@ -6194,12 +6275,12 @@
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>131</v>
@@ -6208,7 +6289,7 @@
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>132</v>
@@ -6217,12 +6298,12 @@
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>133</v>
@@ -6231,7 +6312,7 @@
         <v>9</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>134</v>
@@ -6240,352 +6321,352 @@
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="251">
@@ -6593,19 +6674,19 @@
         <v>198</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>200</v>
@@ -6616,7 +6697,7 @@
         <v>198</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
@@ -6625,10 +6706,10 @@
         <v>199</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
         <v>200</v>
@@ -6639,7 +6720,7 @@
         <v>198</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
@@ -6648,10 +6729,10 @@
         <v>199</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>200</v>
@@ -6662,7 +6743,7 @@
         <v>198</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
@@ -6671,7 +6752,7 @@
         <v>199</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
@@ -6685,7 +6766,7 @@
         <v>198</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
@@ -6694,10 +6775,10 @@
         <v>199</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>200</v>
@@ -6708,7 +6789,7 @@
         <v>198</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
@@ -6717,10 +6798,10 @@
         <v>199</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>200</v>
@@ -6731,16 +6812,16 @@
         <v>198</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
@@ -6754,19 +6835,19 @@
         <v>198</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>200</v>
@@ -6774,968 +6855,1520 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="F260" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C265" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C272" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E272" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E280" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F280" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>236</v>
+        <v>103</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="E298" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F298" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C298" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D298" s="2" t="s">
+      <c r="G298" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E298" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D299" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B299" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D299" s="2" t="s">
+      <c r="E299" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="E300" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G304" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G306" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G307" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E300" s="2" t="s">
+      <c r="C312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F300" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G300" s="2" t="s">
+      <c r="F312" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G312" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
         <v>246</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="280">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -904,7 +910,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H324"/>
+  <dimension ref="A1:H332"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2537,7 +2543,7 @@
         <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>87</v>
@@ -2600,19 +2606,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2623,16 +2629,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>140</v>
@@ -2646,7 +2652,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>141</v>
@@ -2655,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>142</v>
@@ -2669,7 +2675,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>143</v>
@@ -2678,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>144</v>
@@ -2692,7 +2698,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>145</v>
@@ -2701,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>146</v>
@@ -2715,19 +2721,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2738,22 +2744,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>45</v>
@@ -2761,7 +2767,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>141</v>
@@ -2770,13 +2776,13 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>45</v>
@@ -2784,7 +2790,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>143</v>
@@ -2793,13 +2799,13 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>45</v>
@@ -2807,7 +2813,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>145</v>
@@ -2816,7 +2822,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>146</v>
@@ -2833,7 +2839,7 @@
         <v>149</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>12</v>
@@ -2842,10 +2848,10 @@
         <v>150</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>45</v>
@@ -2853,22 +2859,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>45</v>
@@ -2876,19 +2882,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2899,19 +2905,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2922,19 +2928,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2945,19 +2951,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2968,19 +2974,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2991,19 +2997,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -3014,22 +3020,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>45</v>
@@ -3037,22 +3043,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>45</v>
@@ -3060,22 +3066,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>45</v>
@@ -3083,19 +3089,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>18</v>
@@ -3106,22 +3112,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>45</v>
@@ -3129,19 +3135,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -3152,19 +3158,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -3175,22 +3181,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>45</v>
@@ -3198,19 +3204,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3221,19 +3227,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>18</v>
@@ -3244,19 +3250,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3267,19 +3273,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>18</v>
@@ -3290,22 +3296,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>45</v>
@@ -3313,22 +3319,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>45</v>
@@ -3336,22 +3342,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>45</v>
@@ -3359,19 +3365,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3382,19 +3388,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3405,22 +3411,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>45</v>
@@ -3428,19 +3434,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3451,19 +3457,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>18</v>
@@ -3474,22 +3480,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>45</v>
@@ -3497,22 +3503,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>45</v>
@@ -3520,22 +3526,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>45</v>
@@ -3543,19 +3549,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3566,19 +3572,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3589,19 +3595,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3612,19 +3618,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3635,19 +3641,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3658,22 +3664,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>45</v>
@@ -3681,19 +3687,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3704,19 +3710,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>18</v>
@@ -3727,22 +3733,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>45</v>
@@ -3750,22 +3756,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>45</v>
@@ -3773,22 +3779,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>45</v>
@@ -3796,19 +3802,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3819,19 +3825,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3842,22 +3848,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>45</v>
@@ -3865,22 +3871,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>45</v>
@@ -3888,22 +3894,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>45</v>
@@ -3911,22 +3917,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>45</v>
@@ -3934,19 +3940,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>18</v>
@@ -3957,19 +3963,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3980,22 +3986,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>45</v>
@@ -4003,22 +4009,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>45</v>
@@ -4026,19 +4032,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -4049,22 +4055,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>45</v>
@@ -4072,19 +4078,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -4095,22 +4101,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>45</v>
@@ -4121,22 +4127,22 @@
         <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141">
@@ -4144,22 +4150,22 @@
         <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142">
@@ -4167,505 +4173,505 @@
         <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E153" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164">
@@ -4673,7 +4679,7 @@
         <v>189</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
@@ -4682,13 +4688,13 @@
         <v>190</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165">
@@ -4696,22 +4702,22 @@
         <v>189</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>190</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166">
@@ -4719,7 +4725,7 @@
         <v>189</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
@@ -4728,3517 +4734,3517 @@
         <v>190</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
+      <c r="E189" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
+      <c r="E191" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
+      <c r="E213" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D214" s="2" t="s">
+      <c r="E214" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D215" s="2" t="s">
+      <c r="E215" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="2" t="s">
+      <c r="E216" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
+      <c r="E236" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="2" t="s">
+      <c r="E237" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D238" s="2" t="s">
+      <c r="E238" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="2" t="s">
+      <c r="E239" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" s="2" t="s">
+      <c r="E240" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D241" s="2" t="s">
+      <c r="E241" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="E260" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E260" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E261" s="2" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E262" s="2" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E263" s="2" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E264" s="2" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E265" s="2" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="E266" s="2" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E268" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F268" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E273" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D274" s="2" t="s">
+      <c r="E274" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D281" s="2" t="s">
+      <c r="F281" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G281" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G281" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B282" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="E282" s="2" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>91</v>
+        <v>230</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>98</v>
+        <v>240</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C293" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D293" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E293" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F310" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C310" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E310" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G310" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G312" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F312" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E313" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F313" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G313" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G314" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E314" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G314" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G315" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E315" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G315" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E316" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F316" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G316" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E317" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D318" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E318" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G318" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>9</v>
@@ -8247,7 +8253,7 @@
         <v>54</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
@@ -8258,22 +8264,22 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>45</v>
@@ -8281,19 +8287,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
@@ -8304,71 +8310,255 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>273</v>
+        <v>45</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>273</v>
+        <v>45</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="C329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D324" s="2" t="s">
+      <c r="C331" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E324" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G324" s="2" t="s">
+      <c r="B332" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>273</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="282">
   <si>
     <t>Sezione</t>
   </si>
@@ -570,6 +570,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -910,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H337"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4469,19 +4475,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4492,19 +4498,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4515,19 +4521,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4538,19 +4544,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4561,19 +4567,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4584,19 +4590,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4607,19 +4613,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4630,19 +4636,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4653,19 +4659,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4676,19 +4682,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4699,19 +4705,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4722,19 +4728,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4748,7 +4754,7 @@
         <v>190</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
@@ -4757,13 +4763,13 @@
         <v>191</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168">
@@ -4771,3641 +4777,3641 @@
         <v>190</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="E193" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
+      <c r="E194" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D219" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220" s="2" t="s">
+      <c r="E220" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" s="2" t="s">
+      <c r="E245" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F245" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D246" s="2" t="s">
+      <c r="E246" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E246" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F246" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="E271" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="E272" s="2" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="C279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="F279" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D285" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="2" t="s">
+      <c r="E285" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F285" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G285" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D287" s="2" t="s">
+      <c r="F287" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G287" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F287" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D293" s="2" t="s">
+      <c r="E293" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G293" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="E295" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B299" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C299" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D299" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E299" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D324" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D325" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G325" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
@@ -8414,7 +8420,7 @@
         <v>51</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
@@ -8425,10 +8431,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>12</v>
@@ -8437,10 +8443,10 @@
         <v>51</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>42</v>
@@ -8448,19 +8454,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
@@ -8471,22 +8477,22 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>42</v>
@@ -8494,19 +8500,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>10</v>
@@ -8517,10 +8523,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>9</v>
@@ -8529,7 +8535,7 @@
         <v>51</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>10</v>
@@ -8540,10 +8546,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
@@ -8552,7 +8558,7 @@
         <v>51</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
@@ -8563,19 +8569,19 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
@@ -8586,19 +8592,19 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
@@ -8609,71 +8615,117 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C336" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D337" s="2" t="s">
+      <c r="C338" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E337" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G337" s="2" t="s">
+      <c r="B339" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D339" s="2" t="s">
         <v>275</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -8092,7 +8092,7 @@
         <v>108</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>245</v>
@@ -8115,7 +8115,7 @@
         <v>110</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>245</v>
@@ -8124,7 +8124,7 @@
         <v>111</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>247</v>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="284">
   <si>
     <t>Sezione</t>
   </si>
@@ -858,6 +858,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8728,6 +8734,29 @@
         <v>277</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/UnCiv_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="288">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -922,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H340"/>
+  <dimension ref="A1:H356"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2532,7 +2544,7 @@
         <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>84</v>
@@ -2555,7 +2567,7 @@
         <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>84</v>
@@ -2595,19 +2607,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2618,19 +2630,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2641,16 +2653,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>143</v>
@@ -2664,7 +2676,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>144</v>
@@ -2673,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>145</v>
@@ -2687,7 +2699,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>146</v>
@@ -2696,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>147</v>
@@ -2710,19 +2722,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2733,22 +2745,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>42</v>
@@ -2756,16 +2768,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>143</v>
@@ -2779,7 +2791,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>144</v>
@@ -2788,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>145</v>
@@ -2802,7 +2814,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>146</v>
@@ -2811,13 +2823,13 @@
         <v>12</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>42</v>
@@ -2825,22 +2837,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>42</v>
@@ -2848,22 +2860,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>42</v>
@@ -2871,22 +2883,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>42</v>
@@ -2894,19 +2906,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2917,19 +2929,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2940,19 +2952,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2963,19 +2975,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2986,22 +2998,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>42</v>
@@ -3009,22 +3021,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>42</v>
@@ -3032,19 +3044,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -3055,22 +3067,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>42</v>
@@ -3078,22 +3090,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>42</v>
@@ -3101,22 +3113,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>42</v>
@@ -3124,19 +3136,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -3147,19 +3159,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>18</v>
@@ -3170,19 +3182,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>18</v>
@@ -3193,19 +3205,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3216,22 +3228,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>42</v>
@@ -3239,22 +3251,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>42</v>
@@ -3262,19 +3274,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>18</v>
@@ -3285,19 +3297,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3308,19 +3320,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>18</v>
@@ -3331,22 +3343,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>42</v>
@@ -3354,22 +3366,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>42</v>
@@ -3377,19 +3389,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3400,22 +3412,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>42</v>
@@ -3423,22 +3435,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>42</v>
@@ -3446,22 +3458,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>42</v>
@@ -3469,19 +3481,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3492,22 +3504,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>42</v>
@@ -3515,22 +3527,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>42</v>
@@ -3538,22 +3550,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>42</v>
@@ -3561,19 +3573,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3584,22 +3596,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>42</v>
@@ -3607,22 +3619,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>42</v>
@@ -3630,19 +3642,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3653,19 +3665,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3676,19 +3688,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3699,22 +3711,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>42</v>
@@ -3722,22 +3734,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>42</v>
@@ -3745,22 +3757,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>42</v>
@@ -3768,22 +3780,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>42</v>
@@ -3791,19 +3803,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3814,19 +3826,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3837,19 +3849,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>18</v>
@@ -3860,22 +3872,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>42</v>
@@ -3883,22 +3895,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>42</v>
@@ -3906,19 +3918,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>18</v>
@@ -3929,19 +3941,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3952,22 +3964,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>42</v>
@@ -3975,22 +3987,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>42</v>
@@ -3998,19 +4010,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>18</v>
@@ -4021,22 +4033,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>42</v>
@@ -4044,22 +4056,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>42</v>
@@ -4067,19 +4079,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -4090,22 +4102,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>42</v>
@@ -4113,19 +4125,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -4136,19 +4148,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>18</v>
@@ -4159,22 +4171,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>42</v>
@@ -4182,22 +4194,22 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>42</v>
@@ -4205,4556 +4217,4924 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E273" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>216</v>
+        <v>121</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E280" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G280" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E290" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="F290" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G290" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C312" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D312" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E312" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="E326" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F326" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E326" s="2" t="s">
+      <c r="G326" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G326" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D327" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E327" s="2" t="s">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D328" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D328" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E328" s="2" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D329" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E329" s="2" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E330" s="2" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D331" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E331" s="2" t="s">
-        <v>262</v>
+        <v>119</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D332" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E332" s="2" t="s">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D333" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E333" s="2" t="s">
-        <v>266</v>
+        <v>123</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D334" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E334" s="2" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D335" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E335" s="2" t="s">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D336" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D336" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E336" s="2" t="s">
-        <v>272</v>
+        <v>129</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>279</v>
+        <v>133</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="C351" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D340" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E340" s="2" t="s">
+      <c r="C354" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E354" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F340" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G340" s="2" t="s">
+      <c r="F354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
         <v>277</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
